--- a/table/question/question-dili.xlsx
+++ b/table/question/question-dili.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9526" uniqueCount="4405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9533" uniqueCount="4410">
   <si>
     <t>ID</t>
   </si>
@@ -13259,6 +13259,21 @@
   </si>
   <si>
     <t>在我国，沙尘暴天气多发生的季节是：</t>
+  </si>
+  <si>
+    <t>下列不属于台风对人类带来的有益影响的是：</t>
+  </si>
+  <si>
+    <t>带来大量渔获</t>
+  </si>
+  <si>
+    <t>提供大量淡水资源</t>
+  </si>
+  <si>
+    <t>起到调温作用</t>
+  </si>
+  <si>
+    <t>保持热平衡</t>
   </si>
 </sst>
 </file>
@@ -14083,6 +14098,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14449,10 +14467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1367"/>
+  <dimension ref="A1:O1368"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A1329" workbookViewId="0">
+      <selection activeCell="A1367" sqref="A1367:A1368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -58220,32 +58238,64 @@
       <c r="A1367" s="1">
         <v>1364</v>
       </c>
-      <c r="B1367" s="31" t="s">
+      <c r="B1367" s="1" t="s">
         <v>4404</v>
       </c>
-      <c r="C1367" s="31" t="s">
+      <c r="C1367" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="D1367" s="31" t="s">
+      <c r="D1367" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="E1367" s="31" t="s">
+      <c r="E1367" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="F1367" s="31" t="s">
+      <c r="F1367" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="G1367" s="36" t="s">
+      <c r="G1367" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H1367" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1367" s="12">
+      <c r="H1367" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1367" s="1">
         <v>70</v>
       </c>
-      <c r="J1367" s="12">
+      <c r="J1367" s="1">
         <v>30</v>
+      </c>
+    </row>
+    <row r="1368" customHeight="1" spans="1:10">
+      <c r="A1368" s="1">
+        <v>1365</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C1368" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="D1368" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E1368" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="F1368" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="G1368" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1368" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1368" s="1">
+        <v>60</v>
+      </c>
+      <c r="J1368" s="1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -58259,7 +58309,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C275:F275 C102:F102" numberStoredAsText="1"/>
+    <ignoredError sqref="C102:F102 C275:F275" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>